--- a/nessus.xlsx
+++ b/nessus.xlsx
@@ -1,25 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>中文标题</t>
+  </si>
+  <si>
+    <t>漏洞描述</t>
+  </si>
+  <si>
+    <t>修复方式</t>
+  </si>
+  <si>
+    <t>修复方法</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>漏洞等级</t>
+  </si>
+  <si>
+    <t>Microsoft Windows SMBv1 Multiple Vulnerabilities</t>
+  </si>
+  <si>
+    <t>smb多个漏洞</t>
+  </si>
+  <si>
+    <t>极高危</t>
+  </si>
+  <si>
+    <t>CVE-2017-0267</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>更新补丁</t>
+  </si>
+  <si>
+    <t>英文标题（与nessus导出一致）</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Windows Server 2008     : KB4018466
+  - Windows 7               : KB4019264
+  - Windows Server 2008 R2  : KB4019264
+  - Windows Server 2012     : KB4019216
+  - Windows 8.1 / RT 8.1.   : KB4019215
+  - Windows Server 2012 R2  : KB4019215
+  - Windows 10              : KB4019474
+  - Windows 10 Version 1511 : KB4019473
+  - Windows 10 Version 1607 : KB4019472
+  - Windows 10 Version 1703 : KB4016871
+  - Windows Server 2016     : KB4019472</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,14 +104,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +413,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="32.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nessus.xlsx
+++ b/nessus.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>中文标题</t>
   </si>
@@ -70,15 +70,175 @@
   - Windows 10 Version 1703 : KB4016871
   - Windows Server 2016     : KB4019472</t>
   </si>
+  <si>
+    <t>SSL RC4 Cipher Suites Supported (Bar Mitzvah)</t>
+  </si>
+  <si>
+    <t>SSL/TLS 受诫礼(BAR-MITZVAH)攻击漏洞</t>
+  </si>
+  <si>
+    <t>MongoDB Service Without Authentication Detection</t>
+  </si>
+  <si>
+    <t>mongodb未授权访问</t>
+  </si>
+  <si>
+    <t>OpenSSL 1.0.0 &lt; 1.0.0i ASN.1 asn1_d2i_read_bio Memory Corruption</t>
+  </si>
+  <si>
+    <t>OpenSSL的”asn1_d2i_read_bio()” DER格式数据处理漏洞</t>
+  </si>
+  <si>
+    <t>Microsoft Security Advisory 4025685: Guidance for older platforms (XP / 2003) (EXPLODINGCAN)</t>
+  </si>
+  <si>
+    <t>Windows远程代码执行漏洞</t>
+  </si>
+  <si>
+    <t>Windows远程桌面协议中间人攻击漏洞</t>
+  </si>
+  <si>
+    <t>Microsoft Windows Remote Desktop Protocol Server Man-in-the-Middle Weakness</t>
+  </si>
+  <si>
+    <t>Trend Micro Control Manager CasLogDirectInsertHandler.cs Remote Code Execution</t>
+  </si>
+  <si>
+    <t>趋势控制管理器远程命令执行漏洞</t>
+  </si>
+  <si>
+    <t>POODLE SSLv3 安全漏洞</t>
+  </si>
+  <si>
+    <t>SSLv3 Padding Oracle On Downgraded Legacy Encryption Vulnerability (POODLE)</t>
+  </si>
+  <si>
+    <t>NTP 'ntp_request.c'远程拒绝服务漏洞</t>
+  </si>
+  <si>
+    <t>Network Time Protocol Daemon (ntpd) monlist Command Enabled DoS</t>
+  </si>
+  <si>
+    <t>Serv-U FTP Server &lt; 15.0.1.20 DoS</t>
+  </si>
+  <si>
+    <t>Serv-U FTP拒绝服务漏洞</t>
+  </si>
+  <si>
+    <t>Serv-U &lt; 14.0.2.0 FTP Server SSL Renegotiation DoS</t>
+  </si>
+  <si>
+    <t>Serv-U FTP SSL拒绝服务漏洞</t>
+  </si>
+  <si>
+    <t>OpenSSL 1.0.0&lt;1.0.1O多个漏洞</t>
+  </si>
+  <si>
+    <t>OpenSSL 1.0.0 &lt; 1.0.1o Multiple Vulnerabilities (POODLE)</t>
+  </si>
+  <si>
+    <t>Apache 2.2.x &lt; 2.2.13 APR apr_palloc Heap Overflow</t>
+  </si>
+  <si>
+    <t>Apache 堆溢出安全更新</t>
+  </si>
+  <si>
+    <t>Kibana ESA 安全更新</t>
+  </si>
+  <si>
+    <t>Kibana ESA-2018-14</t>
+  </si>
+  <si>
+    <t>MS 2647518: Update Rollup for ActiveX Kill Bits (2647518)</t>
+  </si>
+  <si>
+    <t>MS 2647518： ActiveX Kill Bits安全更新</t>
+  </si>
+  <si>
+    <t>Zabbix Server 'active checks' Command Injection</t>
+  </si>
+  <si>
+    <t>zabbix服务器的“活动检查”命令注入漏洞</t>
+  </si>
+  <si>
+    <t>OpenSSL 1.0.0&lt;1.0.0J DTBLS CBC拒绝服务漏洞</t>
+  </si>
+  <si>
+    <t>OpenSSL 1.0.0 &lt; 1.0.0j DTLS CBC Denial of Service</t>
+  </si>
+  <si>
+    <t>OpenSSL &lt; 0.9.8p / 1.0.0e Double Free Vulnerability</t>
+  </si>
+  <si>
+    <t>OpenSSL＜0.98p/1.0.0e 多个漏洞</t>
+  </si>
+  <si>
+    <t>IM14-078：特权提升漏洞（2992719）</t>
+  </si>
+  <si>
+    <t>MS14-078: Vulnerability in IME (Japanese) Could Allow Elevation of Privilege (2992719)</t>
+  </si>
+  <si>
+    <t>KB28 20197：ActiveX Kill Bits安全更新</t>
+  </si>
+  <si>
+    <t>MS KB2820197: Update Rollup for ActiveX Kill Bits</t>
+  </si>
+  <si>
+    <t>KB300 9008：POODLE SSL 3信息泄露漏洞</t>
+  </si>
+  <si>
+    <t>MS KB3009008: Vulnerability in SSL 3.0 Could Allow Information Disclosure (POODLE)</t>
+  </si>
+  <si>
+    <t>MS 2736233: Update Rollup for ActiveX Kill Bits (2736233)</t>
+  </si>
+  <si>
+    <t>Apache 2.2.x &lt; 2.2.21 mod_proxy_ajp DoS</t>
+  </si>
+  <si>
+    <t>Apache 2.2 .X2.2.2.21 mod_proxy_ajp  拒绝服务漏洞</t>
+  </si>
+  <si>
+    <t>OpenSSL AES-NI Padding Oracle MitM Information Disclosure</t>
+  </si>
+  <si>
+    <t>OpenSSL AES-NI CBC 中间人劫持漏洞</t>
+  </si>
+  <si>
+    <t>DNS服务器区域传输信息泄露</t>
+  </si>
+  <si>
+    <t>DNS Server Zone Transfer Information Disclosure (AXFR)</t>
+  </si>
+  <si>
+    <t>MS11-090: Cumulative Security Update of ActiveX Kill Bits (2618451)</t>
+  </si>
+  <si>
+    <t>MS13-090: Cumulative Security Update of ActiveX Kill Bits (2900986)</t>
+  </si>
+  <si>
+    <t>MS11-027: Cumulative Security Update of ActiveX Kill Bits (2508272)</t>
+  </si>
+  <si>
+    <t>MS11-090：ActiveX Kill Bits安全更新</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,12 +264,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,16 +579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="80.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="2"/>
@@ -458,26 +623,242 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/nessus.xlsx
+++ b/nessus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>中文标题</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>MS11-090：ActiveX Kill Bits安全更新</t>
+  </si>
+  <si>
+    <t>MS13-090：ActiveX Kill Bits安全更新</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -850,7 +853,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">

--- a/nessus.xlsx
+++ b/nessus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>中文标题</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>MS13-090：ActiveX Kill Bits安全更新</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -864,6 +867,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
